--- a/Team-Data/2009-10/3-26-2009-10.xlsx
+++ b/Team-Data/2009-10/3-26-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -669,100 +736,100 @@
         <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.634</v>
+        <v>0.648</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J2" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
         <v>6.4</v>
       </c>
       <c r="M2" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P2" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R2" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S2" t="n">
         <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V2" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -783,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR2" t="n">
         <v>9</v>
@@ -792,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -801,25 +868,25 @@
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -848,52 +915,52 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
         <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.643</v>
+        <v>0.648</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.484</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M3" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.345</v>
+        <v>0.35</v>
       </c>
       <c r="O3" t="n">
         <v>18.8</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R3" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T3" t="n">
         <v>38.8</v>
@@ -902,46 +969,46 @@
         <v>23.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>21.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG3" t="n">
         <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,28 +1017,28 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
         <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -1033,61 +1100,61 @@
         <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.535</v>
+        <v>0.521</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
         <v>77</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="O4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P4" t="n">
         <v>26.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.745</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T4" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="V4" t="n">
         <v>15.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
         <v>5.3</v>
@@ -1096,28 +1163,28 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>94.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
@@ -1147,19 +1214,19 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>29</v>
@@ -1177,13 +1244,13 @@
         <v>6</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
@@ -1305,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1326,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
@@ -1356,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.803</v>
+        <v>0.792</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="J6" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.49</v>
+        <v>0.487</v>
       </c>
       <c r="L6" t="n">
         <v>7.5</v>
@@ -1424,16 +1491,16 @@
         <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R6" t="n">
         <v>9.699999999999999</v>
@@ -1445,34 +1512,34 @@
         <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>28</v>
@@ -1496,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
         <v>9</v>
@@ -1505,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>27</v>
@@ -1523,28 +1590,28 @@
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.662</v>
+        <v>0.653</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>6.5</v>
@@ -1606,13 +1673,13 @@
         <v>17.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8139999999999999</v>
@@ -1627,13 +1694,13 @@
         <v>41.6</v>
       </c>
       <c r="U7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1645,16 +1712,16 @@
         <v>18.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1666,25 +1733,25 @@
         <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1699,19 +1766,19 @@
         <v>23</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>3</v>
       </c>
       <c r="AV7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
         <v>6</v>
@@ -1723,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -1773,34 +1840,34 @@
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
         <v>81.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O8" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="P8" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
         <v>30.7</v>
@@ -1812,52 +1879,52 @@
         <v>21.2</v>
       </c>
       <c r="V8" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA8" t="n">
         <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
@@ -1884,25 +1951,25 @@
         <v>15</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -1943,22 +2010,22 @@
         <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>0.31</v>
+        <v>0.324</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J9" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.442</v>
@@ -1970,34 +2037,34 @@
         <v>14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.309</v>
+        <v>0.308</v>
       </c>
       <c r="O9" t="n">
         <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="R9" t="n">
         <v>13.2</v>
       </c>
       <c r="S9" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T9" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V9" t="n">
         <v>13.9</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>3.9</v>
@@ -2006,25 +2073,25 @@
         <v>4.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.8</v>
+        <v>-5.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>26</v>
@@ -2045,7 +2112,7 @@
         <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
@@ -2054,10 +2121,10 @@
         <v>22</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2066,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
         <v>27</v>
@@ -2093,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>0.286</v>
+        <v>0.282</v>
       </c>
       <c r="H10" t="n">
         <v>48.1</v>
       </c>
       <c r="I10" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L10" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N10" t="n">
         <v>0.374</v>
       </c>
       <c r="O10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P10" t="n">
         <v>25.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S10" t="n">
         <v>28.9</v>
       </c>
       <c r="T10" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U10" t="n">
         <v>22.4</v>
@@ -2182,7 +2249,7 @@
         <v>9.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -2200,22 +2267,22 @@
         <v>-3.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -2224,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="AL10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM10" t="n">
         <v>7</v>
@@ -2245,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT10" t="n">
         <v>30</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -2304,13 +2371,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
+        <v>36</v>
+      </c>
+      <c r="F11" t="n">
         <v>35</v>
-      </c>
-      <c r="F11" t="n">
-        <v>34</v>
       </c>
       <c r="G11" t="n">
         <v>0.507</v>
@@ -2319,13 +2386,13 @@
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J11" t="n">
         <v>84.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
         <v>7.8</v>
@@ -2334,7 +2401,7 @@
         <v>22.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O11" t="n">
         <v>19</v>
@@ -2349,46 +2416,46 @@
         <v>11.9</v>
       </c>
       <c r="S11" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>3.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
         <v>22.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -2424,22 +2491,22 @@
         <v>12</v>
       </c>
       <c r="AR11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,13 +2515,13 @@
         <v>30</v>
       </c>
       <c r="AZ11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="n">
-        <v>0.375</v>
+        <v>0.361</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
@@ -2504,16 +2571,16 @@
         <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M12" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="N12" t="n">
         <v>0.341</v>
@@ -2522,10 +2589,10 @@
         <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.775</v>
+        <v>0.778</v>
       </c>
       <c r="R12" t="n">
         <v>9.6</v>
@@ -2540,49 +2607,49 @@
         <v>20.8</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
         <v>5.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
         <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-3.6</v>
+        <v>-4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
@@ -2603,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>28</v>
@@ -2612,19 +2679,19 @@
         <v>6</v>
       </c>
       <c r="AT12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
       </c>
       <c r="AV12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2636,10 +2703,10 @@
         <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
         <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>0.386</v>
+        <v>0.375</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M13" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N13" t="n">
         <v>0.331</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P13" t="n">
         <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
         <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T13" t="n">
         <v>41.4</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
         <v>15.6</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X13" t="n">
         <v>5.8</v>
@@ -2734,19 +2801,19 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2767,19 +2834,19 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2788,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>21</v>
@@ -2812,16 +2879,16 @@
         <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
       </c>
       <c r="BB13" t="n">
+        <v>27</v>
+      </c>
+      <c r="BC13" t="n">
         <v>28</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>27</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -2853,40 +2920,40 @@
         <v>71</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.732</v>
+        <v>0.746</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L14" t="n">
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.769</v>
@@ -2895,19 +2962,19 @@
         <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
         <v>4.9</v>
@@ -2916,19 +2983,19 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>102.5</v>
+        <v>102.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2952,13 +3019,13 @@
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -2970,7 +3037,7 @@
         <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>9</v>
@@ -2994,16 +3061,16 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA14" t="n">
         <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.535</v>
+        <v>0.528</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J15" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L15" t="n">
         <v>4.4</v>
@@ -3062,16 +3129,16 @@
         <v>12.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
         <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R15" t="n">
         <v>13.1</v>
@@ -3083,13 +3150,13 @@
         <v>43.4</v>
       </c>
       <c r="U15" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
@@ -3098,19 +3165,19 @@
         <v>6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
         <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.2</v>
+        <v>102.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3122,16 +3189,16 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
@@ -3158,10 +3225,10 @@
         <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV15" t="n">
         <v>25</v>
@@ -3176,13 +3243,13 @@
         <v>28</v>
       </c>
       <c r="AZ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB15" t="n">
         <v>7</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>6</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -3229,31 +3296,31 @@
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5</v>
+        <v>79.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>17.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
@@ -3265,13 +3332,13 @@
         <v>41.8</v>
       </c>
       <c r="U16" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
         <v>5.7</v>
@@ -3283,49 +3350,49 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.7</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3346,7 +3413,7 @@
         <v>28</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>15</v>
@@ -3355,19 +3422,19 @@
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>39</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.549</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J17" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M17" t="n">
         <v>21.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
         <v>15.4</v>
@@ -3441,13 +3508,13 @@
         <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T17" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3456,7 +3523,7 @@
         <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>5.1</v>
@@ -3468,13 +3535,13 @@
         <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
@@ -3489,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3504,7 +3571,7 @@
         <v>5</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>30</v>
@@ -3516,31 +3583,31 @@
         <v>18</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS17" t="n">
         <v>9</v>
       </c>
       <c r="AT17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV17" t="n">
         <v>7</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>5</v>
       </c>
       <c r="AW17" t="n">
         <v>18</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -3581,13 +3648,13 @@
         <v>72</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>0.181</v>
+        <v>0.194</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,37 +3663,37 @@
         <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L18" t="n">
         <v>4.8</v>
       </c>
       <c r="M18" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P18" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.745</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
         <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U18" t="n">
         <v>19.7</v>
@@ -3641,22 +3708,22 @@
         <v>3.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z18" t="n">
         <v>20.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,16 +3735,16 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
@@ -3689,22 +3756,22 @@
         <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU18" t="n">
         <v>24</v>
@@ -3713,7 +3780,7 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>30</v>
@@ -3722,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -3763,34 +3830,34 @@
         <v>71</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" t="n">
-        <v>0.127</v>
+        <v>0.113</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="J19" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.322</v>
+        <v>0.318</v>
       </c>
       <c r="O19" t="n">
         <v>19</v>
@@ -3802,43 +3869,43 @@
         <v>0.775</v>
       </c>
       <c r="R19" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T19" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="U19" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="V19" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W19" t="n">
         <v>7.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA19" t="n">
         <v>20.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>91.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3865,19 +3932,19 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3895,7 +3962,7 @@
         <v>17</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
         <v>23</v>
@@ -3904,10 +3971,10 @@
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
         <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>0.472</v>
+        <v>0.466</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3969,37 +4036,37 @@
         <v>7.1</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
         <v>15.8</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U20" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V20" t="n">
         <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>3.7</v>
@@ -4011,22 +4078,22 @@
         <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
         <v>19</v>
@@ -4035,10 +4102,10 @@
         <v>13</v>
       </c>
       <c r="AI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -4062,19 +4129,19 @@
         <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
@@ -4083,19 +4150,19 @@
         <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4209,7 @@
         <v>38.2</v>
       </c>
       <c r="J21" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.455</v>
@@ -4151,25 +4218,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O21" t="n">
         <v>16.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R21" t="n">
         <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T21" t="n">
         <v>40.6</v>
@@ -4178,7 +4245,7 @@
         <v>21.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W21" t="n">
         <v>7.3</v>
@@ -4193,37 +4260,37 @@
         <v>20.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG21" t="n">
         <v>22</v>
       </c>
-      <c r="AG21" t="n">
-        <v>23</v>
-      </c>
       <c r="AH21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4244,22 +4311,22 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT21" t="n">
         <v>25</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
@@ -4268,13 +4335,13 @@
         <v>13</v>
       </c>
       <c r="AZ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -4321,22 +4388,22 @@
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J22" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.332</v>
+        <v>0.34</v>
       </c>
       <c r="O22" t="n">
         <v>21.4</v>
@@ -4357,34 +4424,34 @@
         <v>43.8</v>
       </c>
       <c r="U22" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V22" t="n">
         <v>15.1</v>
       </c>
       <c r="W22" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
@@ -4399,10 +4466,10 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>15</v>
@@ -4414,7 +4481,7 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>23</v>
@@ -4456,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="BB22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -4503,13 +4570,13 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
         <v>77.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L23" t="n">
         <v>10</v>
@@ -4518,40 +4585,40 @@
         <v>27.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="O23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P23" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T23" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V23" t="n">
         <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X23" t="n">
         <v>5.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z23" t="n">
         <v>19.9</v>
@@ -4560,13 +4627,13 @@
         <v>22.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC23" t="n">
         <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4581,13 +4648,13 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
         <v>9</v>
@@ -4614,13 +4681,13 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
@@ -4632,13 +4699,13 @@
         <v>1</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -4673,13 +4740,13 @@
         <v>72</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>0.361</v>
+        <v>0.347</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4700,19 +4767,19 @@
         <v>16.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.763</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
         <v>29.9</v>
@@ -4721,19 +4788,19 @@
         <v>41.8</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
         <v>14.4</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z24" t="n">
         <v>20.2</v>
@@ -4745,13 +4812,13 @@
         <v>97</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF24" t="n">
         <v>24</v>
@@ -4760,25 +4827,25 @@
         <v>24</v>
       </c>
       <c r="AH24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI24" t="n">
         <v>19</v>
       </c>
-      <c r="AI24" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
         <v>27</v>
@@ -4790,31 +4857,31 @@
         <v>14</v>
       </c>
       <c r="AR24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>25</v>
       </c>
       <c r="AT24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU24" t="n">
         <v>19</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
         <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -4867,43 +4934,43 @@
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K25" t="n">
-        <v>0.491</v>
+        <v>0.49</v>
       </c>
       <c r="L25" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.406</v>
+        <v>0.407</v>
       </c>
       <c r="O25" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P25" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.776</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="U25" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V25" t="n">
         <v>15</v>
@@ -4912,46 +4979,46 @@
         <v>5.7</v>
       </c>
       <c r="X25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB25" t="n">
-        <v>110.5</v>
+        <v>110.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4963,13 +5030,13 @@
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
@@ -4978,7 +5045,7 @@
         <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4993,19 +5060,19 @@
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>15</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -5034,73 +5101,73 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>0.592</v>
+        <v>0.597</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
         <v>6.1</v>
       </c>
       <c r="M26" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O26" t="n">
         <v>20</v>
       </c>
       <c r="P26" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T26" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="W26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
         <v>21.7</v>
@@ -5112,10 +5179,10 @@
         <v>3.1</v>
       </c>
       <c r="AD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE26" t="n">
         <v>10</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>11</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
@@ -5124,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>27</v>
@@ -5136,28 +5203,28 @@
         <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -5231,10 +5298,10 @@
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J27" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.455</v>
@@ -5255,22 +5322,22 @@
         <v>24.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V27" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W27" t="n">
         <v>6.8</v>
@@ -5279,7 +5346,7 @@
         <v>4.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z27" t="n">
         <v>22.7</v>
@@ -5288,13 +5355,13 @@
         <v>20.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5312,10 +5379,10 @@
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5333,7 +5400,7 @@
         <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR27" t="n">
         <v>3</v>
@@ -5348,7 +5415,7 @@
         <v>18</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
         <v>23</v>
@@ -5363,10 +5430,10 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB27" t="n">
         <v>16</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -5413,10 +5480,10 @@
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.472</v>
@@ -5425,61 +5492,61 @@
         <v>6.8</v>
       </c>
       <c r="M28" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N28" t="n">
         <v>0.365</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R28" t="n">
         <v>10.8</v>
       </c>
       <c r="S28" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T28" t="n">
         <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
         <v>6.3</v>
       </c>
       <c r="X28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y28" t="n">
         <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA28" t="n">
         <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5491,13 +5558,13 @@
         <v>15</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>10</v>
@@ -5506,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5515,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
         <v>18</v>
@@ -5527,25 +5594,25 @@
         <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW28" t="n">
         <v>26</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
         <v>14</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -5583,25 +5650,25 @@
         <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J29" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L29" t="n">
         <v>6.3</v>
@@ -5610,31 +5677,31 @@
         <v>17.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O29" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="P29" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q29" t="n">
         <v>0.764</v>
       </c>
       <c r="R29" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U29" t="n">
         <v>21.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W29" t="n">
         <v>5.7</v>
@@ -5646,25 +5713,25 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
         <v>18</v>
@@ -5673,10 +5740,10 @@
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>5</v>
@@ -5685,13 +5752,13 @@
         <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP29" t="n">
         <v>7</v>
@@ -5700,16 +5767,16 @@
         <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,13 +5785,13 @@
         <v>30</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>9</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
         <v>11</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -5780,37 +5847,37 @@
         <v>39.2</v>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.49</v>
+        <v>0.491</v>
       </c>
       <c r="L30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M30" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O30" t="n">
         <v>20.3</v>
       </c>
       <c r="P30" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q30" t="n">
         <v>0.739</v>
       </c>
       <c r="R30" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S30" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T30" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
         <v>26.6</v>
@@ -5819,16 +5886,16 @@
         <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
         <v>22.2</v>
@@ -5837,19 +5904,19 @@
         <v>103.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>4</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5888,13 +5955,13 @@
         <v>13</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>4</v>
@@ -5906,7 +5973,7 @@
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
         <v>5</v>
@@ -5915,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
@@ -5947,13 +6014,13 @@
         <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="n">
-        <v>0.286</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5962,22 +6029,22 @@
         <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="O31" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P31" t="n">
         <v>23.2</v>
@@ -5986,19 +6053,19 @@
         <v>0.761</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T31" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>6.1</v>
@@ -6007,7 +6074,7 @@
         <v>5.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
         <v>21.5</v>
@@ -6016,13 +6083,13 @@
         <v>20.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.3</v>
+        <v>-5</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6037,10 +6104,10 @@
         <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
         <v>25</v>
@@ -6052,22 +6119,22 @@
         <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
         <v>13</v>
@@ -6076,7 +6143,7 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW31" t="n">
         <v>28</v>
@@ -6091,10 +6158,10 @@
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2009-10</t>
+          <t>2010-03-26</t>
         </is>
       </c>
     </row>
